--- a/StructureDefinition-lm-substance.xlsx
+++ b/StructureDefinition-lm-substance.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>77</v>
@@ -1594,7 +1594,7 @@
         <v>106</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
